--- a/GOA Northern rockfish/Data/goa_northern_single_species_2022.xlsx
+++ b/GOA Northern rockfish/Data/goa_northern_single_species_2022.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grant.adams\GitHub\RceattleRuns\GOA Northern rockfish\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grant.adams\GitHub\Rceattle-models\GOA Northern rockfish\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5085B042-2AEF-40EB-BC12-CC26F76CA856}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BB7213-F9F3-431E-B09D-A572DA605BBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="31680" windowHeight="13860" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="31680" windowHeight="13860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
     <sheet name="control" sheetId="2" r:id="rId2"/>
     <sheet name="fleet_control" sheetId="3" r:id="rId3"/>
-    <sheet name="srv_biom" sheetId="4" r:id="rId4"/>
-    <sheet name="fsh_biom" sheetId="5" r:id="rId5"/>
+    <sheet name="index_data" sheetId="4" r:id="rId4"/>
+    <sheet name="catch_data" sheetId="5" r:id="rId5"/>
     <sheet name="comp_data" sheetId="6" r:id="rId6"/>
     <sheet name="emp_sel" sheetId="7" r:id="rId7"/>
     <sheet name="NByageFixed" sheetId="8" r:id="rId8"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="398">
   <si>
     <t>Number</t>
   </si>
@@ -372,12 +372,6 @@
   </si>
   <si>
     <t>Age_first_selected</t>
-  </si>
-  <si>
-    <t>Accumatation_age_lower</t>
-  </si>
-  <si>
-    <t>Accumatation_age_upper</t>
   </si>
   <si>
     <t>Weight1_Numbers2</t>
@@ -1234,6 +1228,18 @@
   <si>
     <t>Northern rockfish</t>
   </si>
+  <si>
+    <t>Age_max_selected</t>
+  </si>
+  <si>
+    <t>Comp_loglike</t>
+  </si>
+  <si>
+    <t>Estimate_index_sd</t>
+  </si>
+  <si>
+    <t>Index_sd_prior</t>
+  </si>
 </sst>
 </file>
 
@@ -1673,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
@@ -1685,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1693,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1702,13 +1708,13 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F2" t="s">
         <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1716,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1725,13 +1731,13 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F3" t="s">
         <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1739,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1748,13 +1754,13 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F4" t="s">
         <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1762,7 +1768,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1771,7 +1777,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -1785,7 +1791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1794,13 +1800,13 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1808,7 +1814,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -1817,13 +1823,13 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1831,7 +1837,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -1840,7 +1846,7 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -1854,7 +1860,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1863,13 +1869,13 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F9" t="s">
         <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1877,7 +1883,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1886,13 +1892,13 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1900,7 +1906,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1909,13 +1915,13 @@
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F11" t="s">
         <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1923,7 +1929,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -1932,13 +1938,13 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1946,7 +1952,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -1955,13 +1961,13 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1969,16 +1975,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>41</v>
@@ -1992,7 +1998,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -2001,7 +2007,7 @@
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F15" t="s">
         <v>31</v>
@@ -2015,7 +2021,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -2024,13 +2030,13 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2038,16 +2044,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C17" t="s">
         <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F17" t="s">
         <v>59</v>
@@ -2061,22 +2067,22 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C18" t="s">
         <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2084,19 +2090,19 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -2107,22 +2113,22 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F20" t="s">
         <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2130,22 +2136,22 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F21" t="s">
         <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2153,16 +2159,16 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G22" t="s">
         <v>57</v>
@@ -2179,10 +2185,10 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2199,10 +2205,10 @@
         <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2213,16 +2219,16 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
@@ -2233,16 +2239,16 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D26" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G26" t="s">
         <v>50</v>
@@ -2256,16 +2262,16 @@
         <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2279,7 +2285,7 @@
         <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F28" t="s">
         <v>27</v>
@@ -2299,13 +2305,13 @@
         <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G29" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2322,7 +2328,7 @@
         <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2400,10 +2406,10 @@
         <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D36" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2417,7 +2423,7 @@
         <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F37" s="6"/>
     </row>
@@ -2432,7 +2438,7 @@
         <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2552,10 +2558,10 @@
         <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2566,7 +2572,7 @@
         <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2625,157 +2631,157 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="AU1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
@@ -10699,10 +10705,10 @@
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -10711,162 +10717,162 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="AJ1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11033,7 +11039,7 @@
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11200,7 +11206,7 @@
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -11367,7 +11373,7 @@
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -11534,7 +11540,7 @@
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -11701,7 +11707,7 @@
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -11868,7 +11874,7 @@
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -12035,7 +12041,7 @@
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -12202,7 +12208,7 @@
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -12369,7 +12375,7 @@
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -12536,7 +12542,7 @@
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -12703,7 +12709,7 @@
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -12870,7 +12876,7 @@
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -13037,7 +13043,7 @@
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -13204,7 +13210,7 @@
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -13371,7 +13377,7 @@
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -13538,7 +13544,7 @@
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -13705,7 +13711,7 @@
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -13872,7 +13878,7 @@
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -14039,7 +14045,7 @@
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -14206,7 +14212,7 @@
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -14373,7 +14379,7 @@
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -14540,7 +14546,7 @@
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -14707,7 +14713,7 @@
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -14874,7 +14880,7 @@
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -15041,7 +15047,7 @@
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -15208,7 +15214,7 @@
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -15375,7 +15381,7 @@
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -15542,7 +15548,7 @@
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -15709,7 +15715,7 @@
     </row>
     <row r="31" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -15876,7 +15882,7 @@
     </row>
     <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -16043,7 +16049,7 @@
     </row>
     <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -16210,7 +16216,7 @@
     </row>
     <row r="34" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -16377,7 +16383,7 @@
     </row>
     <row r="35" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -16544,7 +16550,7 @@
     </row>
     <row r="36" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -16711,7 +16717,7 @@
     </row>
     <row r="37" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -16878,7 +16884,7 @@
     </row>
     <row r="38" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -17045,7 +17051,7 @@
     </row>
     <row r="39" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -17212,7 +17218,7 @@
     </row>
     <row r="40" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -17379,7 +17385,7 @@
     </row>
     <row r="41" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -17546,7 +17552,7 @@
     </row>
     <row r="42" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -17713,7 +17719,7 @@
     </row>
     <row r="43" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -17880,7 +17886,7 @@
     </row>
     <row r="44" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -18047,7 +18053,7 @@
     </row>
     <row r="45" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -18214,7 +18220,7 @@
     </row>
     <row r="46" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -18381,7 +18387,7 @@
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -18548,7 +18554,7 @@
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -18715,7 +18721,7 @@
     </row>
     <row r="49" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -18882,7 +18888,7 @@
     </row>
     <row r="50" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -19049,7 +19055,7 @@
     </row>
     <row r="51" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -19216,7 +19222,7 @@
     </row>
     <row r="52" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -19383,7 +19389,7 @@
     </row>
     <row r="53" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -19550,7 +19556,7 @@
     </row>
     <row r="54" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -19717,7 +19723,7 @@
     </row>
     <row r="55" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -19884,7 +19890,7 @@
     </row>
     <row r="56" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -20051,7 +20057,7 @@
     </row>
     <row r="57" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -20218,7 +20224,7 @@
     </row>
     <row r="58" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -20385,7 +20391,7 @@
     </row>
     <row r="59" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -20552,7 +20558,7 @@
     </row>
     <row r="60" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -20719,7 +20725,7 @@
     </row>
     <row r="61" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -20886,7 +20892,7 @@
     </row>
     <row r="62" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -21053,7 +21059,7 @@
     </row>
     <row r="63" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -21243,154 +21249,154 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="AF1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
@@ -21568,154 +21574,154 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="AF1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
@@ -21882,7 +21888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -21896,154 +21902,154 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="AG1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
@@ -22228,94 +22234,94 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -22409,10 +22415,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -22446,7 +22452,7 @@
         <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -22459,7 +22465,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -22566,16 +22572,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -23161,97 +23167,97 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="Y1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -23277,7 +23283,7 @@
         <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -23378,7 +23384,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -23418,7 +23424,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -23426,15 +23432,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -23457,31 +23463,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" t="s">
         <v>259</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>260</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>261</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>262</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" t="s">
         <v>263</v>
-      </c>
-      <c r="F1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -23493,8 +23499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23538,19 +23544,19 @@
         <v>108</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>59</v>
@@ -23559,7 +23565,7 @@
         <v>37</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>56</v>
@@ -23568,30 +23574,30 @@
         <v>53</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -23617,11 +23623,8 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -23662,7 +23665,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -23683,6 +23686,9 @@
         <v>0</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
@@ -23730,27 +23736,27 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -23779,7 +23785,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -23808,7 +23814,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -23837,7 +23843,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -23866,7 +23872,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -23895,7 +23901,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -23924,7 +23930,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -23953,7 +23959,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -23982,7 +23988,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -24011,7 +24017,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -24040,7 +24046,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -24069,7 +24075,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -24098,7 +24104,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -24127,7 +24133,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -24156,7 +24162,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -24192,8 +24198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H63"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24214,24 +24220,24 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -24257,7 +24263,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -24283,7 +24289,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -24309,7 +24315,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -24335,7 +24341,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -24361,7 +24367,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -24387,7 +24393,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -24413,7 +24419,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -24439,7 +24445,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -24465,7 +24471,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -24491,7 +24497,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -24517,7 +24523,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -24543,7 +24549,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -24569,7 +24575,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -24595,7 +24601,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -24621,7 +24627,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -24647,7 +24653,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -24673,7 +24679,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -24699,7 +24705,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -24725,7 +24731,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -24751,7 +24757,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -24777,7 +24783,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -24803,7 +24809,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -24829,7 +24835,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -24855,7 +24861,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -24881,7 +24887,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -24907,7 +24913,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -24933,7 +24939,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -24959,7 +24965,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -24985,7 +24991,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -25011,7 +25017,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -25037,7 +25043,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -25063,7 +25069,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -25089,7 +25095,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -25115,7 +25121,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -25141,7 +25147,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -25167,7 +25173,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -25193,7 +25199,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -25219,7 +25225,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -25245,7 +25251,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -25271,7 +25277,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -25297,7 +25303,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -25323,7 +25329,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -25349,7 +25355,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -25375,7 +25381,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -25401,7 +25407,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -25427,7 +25433,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -25453,7 +25459,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -25479,7 +25485,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -25505,7 +25511,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -25531,7 +25537,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -25557,7 +25563,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -25583,7 +25589,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -25609,7 +25615,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -25635,7 +25641,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -25661,7 +25667,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -25687,7 +25693,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -25713,7 +25719,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -25739,7 +25745,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -25765,7 +25771,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -25791,7 +25797,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -25817,7 +25823,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -25876,171 +25882,171 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -26216,7 +26222,7 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -26392,7 +26398,7 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -26568,7 +26574,7 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -26744,7 +26750,7 @@
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -26920,7 +26926,7 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -27096,7 +27102,7 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -27272,7 +27278,7 @@
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -27448,7 +27454,7 @@
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -27624,7 +27630,7 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -27800,7 +27806,7 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -27976,7 +27982,7 @@
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -28152,7 +28158,7 @@
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -28328,7 +28334,7 @@
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -28504,7 +28510,7 @@
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -28680,7 +28686,7 @@
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -28799,7 +28805,7 @@
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -28918,7 +28924,7 @@
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -29037,7 +29043,7 @@
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -29156,7 +29162,7 @@
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -29275,7 +29281,7 @@
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -29394,7 +29400,7 @@
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -29513,7 +29519,7 @@
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -29632,7 +29638,7 @@
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -29751,7 +29757,7 @@
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -29870,7 +29876,7 @@
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -29989,7 +29995,7 @@
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -30108,7 +30114,7 @@
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -30227,7 +30233,7 @@
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -30346,7 +30352,7 @@
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -30465,7 +30471,7 @@
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -30641,7 +30647,7 @@
     </row>
     <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -30817,7 +30823,7 @@
     </row>
     <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -30993,7 +30999,7 @@
     </row>
     <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -31169,7 +31175,7 @@
     </row>
     <row r="36" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -31345,7 +31351,7 @@
     </row>
     <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -31521,7 +31527,7 @@
     </row>
     <row r="38" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -31697,7 +31703,7 @@
     </row>
     <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -31873,7 +31879,7 @@
     </row>
     <row r="40" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -32049,7 +32055,7 @@
     </row>
     <row r="41" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -32225,7 +32231,7 @@
     </row>
     <row r="42" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -32401,7 +32407,7 @@
     </row>
     <row r="43" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -32577,7 +32583,7 @@
     </row>
     <row r="44" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -32753,7 +32759,7 @@
     </row>
     <row r="45" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -32929,7 +32935,7 @@
     </row>
     <row r="46" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -33105,7 +33111,7 @@
     </row>
     <row r="47" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -33225,7 +33231,7 @@
     </row>
     <row r="48" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -33344,7 +33350,7 @@
     </row>
     <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -33464,7 +33470,7 @@
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -33583,7 +33589,7 @@
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -33702,7 +33708,7 @@
     </row>
     <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -33821,7 +33827,7 @@
     </row>
     <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -33940,7 +33946,7 @@
     </row>
     <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -34059,7 +34065,7 @@
     </row>
     <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -34178,7 +34184,7 @@
     </row>
     <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -34297,7 +34303,7 @@
     </row>
     <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -34416,7 +34422,7 @@
     </row>
     <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -34535,7 +34541,7 @@
     </row>
     <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -34654,7 +34660,7 @@
     </row>
     <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -34773,7 +34779,7 @@
     </row>
     <row r="61" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -34892,7 +34898,7 @@
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -35048,162 +35054,162 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -35370,7 +35376,7 @@
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -35852,7 +35858,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -35861,97 +35867,97 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -36253,10 +36259,10 @@
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -36265,105 +36271,105 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="Z1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -36473,7 +36479,7 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -36583,7 +36589,7 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -36693,7 +36699,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -36803,7 +36809,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -36913,7 +36919,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -37023,7 +37029,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -37133,7 +37139,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -37243,7 +37249,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -37353,7 +37359,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -37463,7 +37469,7 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -37573,7 +37579,7 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -37683,7 +37689,7 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -37793,7 +37799,7 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -37903,7 +37909,7 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -38013,7 +38019,7 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -38123,7 +38129,7 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -38233,7 +38239,7 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -38343,7 +38349,7 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -38453,7 +38459,7 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -38563,7 +38569,7 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -38673,7 +38679,7 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -38783,7 +38789,7 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -38893,7 +38899,7 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -39003,7 +39009,7 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -39113,7 +39119,7 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -39223,7 +39229,7 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -39333,7 +39339,7 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -39443,7 +39449,7 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -39553,7 +39559,7 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -39663,7 +39669,7 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -39773,7 +39779,7 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -39883,7 +39889,7 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -39993,7 +39999,7 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -40103,7 +40109,7 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -40213,7 +40219,7 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -40323,7 +40329,7 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -40433,7 +40439,7 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -40543,7 +40549,7 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -40653,7 +40659,7 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -40763,7 +40769,7 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -40873,7 +40879,7 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -40983,7 +40989,7 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -41093,7 +41099,7 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -41203,7 +41209,7 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -41313,7 +41319,7 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -41423,7 +41429,7 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -41533,7 +41539,7 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -41643,7 +41649,7 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -41753,7 +41759,7 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B51">
         <v>1</v>
